--- a/data/trans_orig/P16B14_2012-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P16B14_2012-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DBD8AA6A-4440-41A9-954E-50BBEEE0AB11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E462B79A-25E1-4088-ACBF-74724CD0D925}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{A25E8854-0C05-4186-B353-F0EAD3999D70}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{D02B67E1-11E5-4ACA-B4A5-6EFC6269D2AF}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -134,13 +134,13 @@
     <t>94,16%</t>
   </si>
   <si>
-    <t>70,14%</t>
+    <t>74,25%</t>
   </si>
   <si>
     <t>96,32%</t>
   </si>
   <si>
-    <t>81,59%</t>
+    <t>82,07%</t>
   </si>
   <si>
     <t>18,74%</t>
@@ -149,13 +149,13 @@
     <t>5,84%</t>
   </si>
   <si>
-    <t>29,86%</t>
+    <t>25,75%</t>
   </si>
   <si>
     <t>3,68%</t>
   </si>
   <si>
-    <t>18,41%</t>
+    <t>17,93%</t>
   </si>
   <si>
     <t>45/54</t>
@@ -212,25 +212,25 @@
     <t>98,83%</t>
   </si>
   <si>
-    <t>94,02%</t>
+    <t>95,18%</t>
   </si>
   <si>
     <t>99,19%</t>
   </si>
   <si>
-    <t>95,96%</t>
+    <t>95,79%</t>
   </si>
   <si>
     <t>1,17%</t>
   </si>
   <si>
-    <t>5,98%</t>
+    <t>4,82%</t>
   </si>
   <si>
     <t>0,81%</t>
   </si>
   <si>
-    <t>4,04%</t>
+    <t>4,21%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -645,7 +645,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60DAD882-C5A1-4F05-83AE-3B4D59D3A7CD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CBA5E6E-C120-4593-AA5E-C259CBDEF1AE}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">

--- a/data/trans_orig/P16B14_2012-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P16B14_2012-Edad-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E462B79A-25E1-4088-ACBF-74724CD0D925}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{480462C6-4A63-4097-9E56-46D2F83C0466}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{D02B67E1-11E5-4ACA-B4A5-6EFC6269D2AF}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{C66CF773-7266-4547-A845-33F7330A87DD}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -134,13 +134,13 @@
     <t>94,16%</t>
   </si>
   <si>
-    <t>74,25%</t>
+    <t>70,39%</t>
   </si>
   <si>
     <t>96,32%</t>
   </si>
   <si>
-    <t>82,07%</t>
+    <t>82,65%</t>
   </si>
   <si>
     <t>18,74%</t>
@@ -149,13 +149,13 @@
     <t>5,84%</t>
   </si>
   <si>
-    <t>25,75%</t>
+    <t>29,61%</t>
   </si>
   <si>
     <t>3,68%</t>
   </si>
   <si>
-    <t>17,93%</t>
+    <t>17,35%</t>
   </si>
   <si>
     <t>45/54</t>
@@ -212,25 +212,25 @@
     <t>98,83%</t>
   </si>
   <si>
-    <t>95,18%</t>
+    <t>94,55%</t>
   </si>
   <si>
     <t>99,19%</t>
   </si>
   <si>
-    <t>95,79%</t>
+    <t>95,59%</t>
   </si>
   <si>
     <t>1,17%</t>
   </si>
   <si>
-    <t>4,82%</t>
+    <t>5,45%</t>
   </si>
   <si>
     <t>0,81%</t>
   </si>
   <si>
-    <t>4,21%</t>
+    <t>4,41%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -645,7 +645,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CBA5E6E-C120-4593-AA5E-C259CBDEF1AE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E3A75AC-48EC-4AC7-81FA-2C48532173FD}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">

--- a/data/trans_orig/P16B14_2012-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P16B14_2012-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{480462C6-4A63-4097-9E56-46D2F83C0466}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{BE9135BB-B92C-41DB-A1D5-A1073A3AB15B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{C66CF773-7266-4547-A845-33F7330A87DD}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{16B59138-5648-4EC6-9584-7A7BF01C5E5E}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -68,7 +68,7 @@
     <t>16/24</t>
   </si>
   <si>
-    <t>Si</t>
+    <t>Sí</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -134,13 +134,13 @@
     <t>94,16%</t>
   </si>
   <si>
-    <t>70,39%</t>
+    <t>70,14%</t>
   </si>
   <si>
     <t>96,32%</t>
   </si>
   <si>
-    <t>82,65%</t>
+    <t>81,59%</t>
   </si>
   <si>
     <t>18,74%</t>
@@ -149,13 +149,13 @@
     <t>5,84%</t>
   </si>
   <si>
-    <t>29,61%</t>
+    <t>29,86%</t>
   </si>
   <si>
     <t>3,68%</t>
   </si>
   <si>
-    <t>17,35%</t>
+    <t>18,41%</t>
   </si>
   <si>
     <t>45/54</t>
@@ -212,25 +212,25 @@
     <t>98,83%</t>
   </si>
   <si>
-    <t>94,55%</t>
+    <t>94,02%</t>
   </si>
   <si>
     <t>99,19%</t>
   </si>
   <si>
-    <t>95,59%</t>
+    <t>95,96%</t>
   </si>
   <si>
     <t>1,17%</t>
   </si>
   <si>
-    <t>5,45%</t>
+    <t>5,98%</t>
   </si>
   <si>
     <t>0,81%</t>
   </si>
   <si>
-    <t>4,41%</t>
+    <t>4,04%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -645,7 +645,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E3A75AC-48EC-4AC7-81FA-2C48532173FD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90E3CAF9-4577-443A-B42C-E9A170F40D49}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">

--- a/data/trans_orig/P16B14_2012-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P16B14_2012-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BE9135BB-B92C-41DB-A1D5-A1073A3AB15B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0B187C6C-ED06-4BF4-9E66-D44C34282F64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{16B59138-5648-4EC6-9584-7A7BF01C5E5E}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{2C893105-015A-4173-A01E-FCE4CCA901D6}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="67">
   <si>
     <t>Porcentajes de antidepresivos y estimulantes recetados en 2012 (Tasa respuesta: 1,68%)</t>
   </si>
@@ -65,7 +65,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>16/24</t>
+    <t>16-24</t>
   </si>
   <si>
     <t>Sí</t>
@@ -104,7 +104,7 @@
     <t>36,25%</t>
   </si>
   <si>
-    <t>25/34</t>
+    <t>25-34</t>
   </si>
   <si>
     <t>69,43%</t>
@@ -125,7 +125,7 @@
     <t>13,49%</t>
   </si>
   <si>
-    <t>35/44</t>
+    <t>35-44</t>
   </si>
   <si>
     <t>81,26%</t>
@@ -158,7 +158,7 @@
     <t>18,41%</t>
   </si>
   <si>
-    <t>45/54</t>
+    <t>45-54</t>
   </si>
   <si>
     <t>82,92%</t>
@@ -173,7 +173,7 @@
     <t>12,61%</t>
   </si>
   <si>
-    <t>55/64</t>
+    <t>55-64</t>
   </si>
   <si>
     <t>73,58%</t>
@@ -194,31 +194,34 @@
     <t>8,27%</t>
   </si>
   <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>93,19%</t>
+    <t>65-74</t>
+  </si>
+  <si>
+    <t>88,17%</t>
+  </si>
+  <si>
+    <t>11,83%</t>
+  </si>
+  <si>
+    <t>75 o más</t>
   </si>
   <si>
     <t>94,04%</t>
   </si>
   <si>
-    <t>6,81%</t>
+    <t>98,83%</t>
+  </si>
+  <si>
+    <t>94,02%</t>
+  </si>
+  <si>
+    <t>99,19%</t>
+  </si>
+  <si>
+    <t>95,96%</t>
   </si>
   <si>
     <t>5,96%</t>
-  </si>
-  <si>
-    <t>98,83%</t>
-  </si>
-  <si>
-    <t>94,02%</t>
-  </si>
-  <si>
-    <t>99,19%</t>
-  </si>
-  <si>
-    <t>95,96%</t>
   </si>
   <si>
     <t>1,17%</t>
@@ -645,8 +648,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90E3CAF9-4577-443A-B42C-E9A170F40D49}">
-  <dimension ref="A1:Q25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89A90B98-ECE7-4815-A653-585C46DCFC6B}">
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1538,46 +1541,46 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D19" s="7">
-        <v>5389</v>
+        <v>994</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F19" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H19" s="7">
+        <v>14</v>
+      </c>
+      <c r="I19" s="7">
+        <v>14029</v>
+      </c>
+      <c r="J19" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="L19" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="M19" s="7">
         <v>15</v>
       </c>
-      <c r="G19" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H19" s="7">
-        <v>27</v>
-      </c>
-      <c r="I19" s="7">
-        <v>28195</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K19" s="7" t="s">
+      <c r="N19" s="7">
+        <v>15023</v>
+      </c>
+      <c r="O19" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P19" s="7" t="s">
         <v>53</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="M19" s="7">
-        <v>31</v>
-      </c>
-      <c r="N19" s="7">
-        <v>33584</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>54</v>
       </c>
       <c r="Q19" s="7" t="s">
         <v>13</v>
@@ -1601,7 +1604,7 @@
         <v>18</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -1616,7 +1619,7 @@
         <v>18</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
@@ -1631,7 +1634,7 @@
         <v>18</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -1640,10 +1643,10 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D21" s="7">
-        <v>5389</v>
+        <v>994</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>13</v>
@@ -1655,10 +1658,10 @@
         <v>13</v>
       </c>
       <c r="H21" s="7">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="I21" s="7">
-        <v>28195</v>
+        <v>14029</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>13</v>
@@ -1670,10 +1673,10 @@
         <v>13</v>
       </c>
       <c r="M21" s="7">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="N21" s="7">
-        <v>33584</v>
+        <v>15023</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>13</v>
@@ -1687,55 +1690,55 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>55</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>31</v>
+        <v>3</v>
       </c>
       <c r="D22" s="7">
-        <v>36518</v>
+        <v>4395</v>
       </c>
       <c r="E22" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>54</v>
+        <v>12</v>
       </c>
       <c r="G22" s="7" t="s">
         <v>13</v>
       </c>
       <c r="H22" s="7">
-        <v>77</v>
+        <v>13</v>
       </c>
       <c r="I22" s="7">
-        <v>81944</v>
+        <v>14166</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>57</v>
+        <v>11</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>58</v>
+        <v>25</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="M22" s="7">
-        <v>108</v>
+        <v>16</v>
       </c>
       <c r="N22" s="7">
-        <v>118461</v>
+        <v>18561</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>59</v>
+        <v>11</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>60</v>
+        <v>47</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -1756,37 +1759,37 @@
         <v>18</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>56</v>
+        <v>19</v>
       </c>
       <c r="H23" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I23" s="7">
-        <v>969</v>
+        <v>0</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>61</v>
+        <v>17</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>62</v>
+        <v>28</v>
       </c>
       <c r="M23" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N23" s="7">
-        <v>969</v>
+        <v>0</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>63</v>
+        <v>17</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>64</v>
+        <v>50</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -1795,63 +1798,219 @@
         <v>3</v>
       </c>
       <c r="C24" s="7">
+        <v>3</v>
+      </c>
+      <c r="D24" s="7">
+        <v>4395</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H24" s="7">
+        <v>13</v>
+      </c>
+      <c r="I24" s="7">
+        <v>14166</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="M24" s="7">
+        <v>16</v>
+      </c>
+      <c r="N24" s="7">
+        <v>18561</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="7">
         <v>31</v>
       </c>
-      <c r="D24" s="7">
+      <c r="D25" s="7">
         <v>36518</v>
       </c>
-      <c r="E24" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H24" s="7">
+      <c r="E25" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H25" s="7">
+        <v>77</v>
+      </c>
+      <c r="I25" s="7">
+        <v>81944</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="M25" s="7">
+        <v>108</v>
+      </c>
+      <c r="N25" s="7">
+        <v>118461</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C26" s="7">
+        <v>0</v>
+      </c>
+      <c r="D26" s="7">
+        <v>0</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="H26" s="7">
+        <v>1</v>
+      </c>
+      <c r="I26" s="7">
+        <v>969</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="M26" s="7">
+        <v>1</v>
+      </c>
+      <c r="N26" s="7">
+        <v>969</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="7">
+        <v>31</v>
+      </c>
+      <c r="D27" s="7">
+        <v>36518</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H27" s="7">
         <v>78</v>
       </c>
-      <c r="I24" s="7">
+      <c r="I27" s="7">
         <v>82913</v>
       </c>
-      <c r="J24" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="M24" s="7">
+      <c r="J27" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="M27" s="7">
         <v>109</v>
       </c>
-      <c r="N24" s="7">
+      <c r="N27" s="7">
         <v>119430</v>
       </c>
-      <c r="O24" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>65</v>
+      <c r="O27" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>66</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
